--- a/theory.xlsx
+++ b/theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dedov\OneDrive\Документы\Test theory\Test-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2855A749-BA0B-4325-9C3F-1BEF79800853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D9293-DE79-4BA9-82EC-01D5487ACDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3588" yWindow="2484" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Что такое тестирование?</t>
   </si>
@@ -209,18 +209,29 @@
       </rPr>
       <t xml:space="preserve"> (Absence-of-errors fallacy). Отсутствие найденных дефектов при тестировании не всегда означает готовность продукта к релизу. Система должна быть удобна пользователю в использовании и удовлетворять его ожиданиям и потребностям.</t>
     </r>
+  </si>
+  <si>
+    <t>Верификация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -628,6 +639,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
